--- a/Income/HCA_inc.xlsx
+++ b/Income/HCA_inc.xlsx
@@ -2990,10 +2990,8 @@
           <t>EPS (Basic, Consolidated)</t>
         </is>
       </c>
-      <c r="B23" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B23" s="0" t="n">
+        <v>15.5781</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>12.9688</v>
@@ -3119,10 +3117,8 @@
           <t>EPS (Basic, from Continuous Ops)</t>
         </is>
       </c>
-      <c r="B24" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B24" s="0" t="n">
+        <v>15.5781</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>12.9688</v>
